--- a/database/categories.xlsx
+++ b/database/categories.xlsx
@@ -1,165 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsell\Documents\5. Nörderi\Programmering\Budgetprogram\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64F5A6-9424-43E3-8843-CF7DE25F44DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Hyra</t>
-  </si>
-  <si>
-    <t>Lön</t>
-  </si>
-  <si>
-    <t>Bidrag</t>
-  </si>
-  <si>
-    <t>Sparande</t>
-  </si>
-  <si>
-    <t>Försäkring</t>
-  </si>
-  <si>
-    <t>Överföringar</t>
-  </si>
-  <si>
-    <t>Mat</t>
-  </si>
-  <si>
-    <t>Mat ute</t>
-  </si>
-  <si>
-    <t>Hem</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Abonnemang</t>
-  </si>
-  <si>
-    <t>Kläder</t>
-  </si>
-  <si>
-    <t>Barn</t>
-  </si>
-  <si>
-    <t>Barnbidr</t>
-  </si>
-  <si>
-    <t>Hyresgästför</t>
-  </si>
-  <si>
-    <t>Överföring Till Ica Banks Konto</t>
-  </si>
-  <si>
-    <t>Maxi Ica Stormarknad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astasvedugn.Se                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikea Vasteras If Custo        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easypark                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magasinet Traning Och         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kappahl Vaesteras Erik        </t>
-  </si>
-  <si>
-    <t>Ica Försäkr</t>
-  </si>
-  <si>
-    <t>Snabböverföring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban Thai Livs A               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mcdonalds                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikea Vasteras Hfb Main        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preem                         </t>
-  </si>
-  <si>
-    <t>Swish Tele2 Sverige Abcomviq Faktura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hm Se0425                     </t>
-  </si>
-  <si>
-    <t>McD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikea Vasteras Hfb Eco         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spotify                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellos Ab                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blomsterlandet                </t>
-  </si>
-  <si>
-    <t>Amazon Prime</t>
-  </si>
-  <si>
-    <t>K*Icaniwill</t>
-  </si>
-  <si>
-    <t>K*Hm Online</t>
-  </si>
-  <si>
-    <t>K*H &amp; M Henn</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -498,163 +420,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hyra</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lön</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bidrag</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Övriga inkomster</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sparande</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Försäkring</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Överföringar</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mat ute</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hem</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Abonnemang</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Kläder</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hälsa</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Nöje</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Barnbidr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Klarna Refun</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hyresgästför</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Överföring Till Ica Banks Konto</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Maxi Ica Stormarknad</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astasvedugn.Se                </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ikea Vasteras If Custo        </t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easypark                      </t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magasinet Traning Och         </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kappahl Vaesteras Erik        </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leklust Noret                 </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>K*The Body S</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filmstaden Upps               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Barnbdr</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ica Försäkr</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Snabböverföring</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ban Thai Livs A               </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mcdonalds                     </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ikea Vasteras Hfb Main        </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Preem                         </t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Swish Tele2 Sverige Abcomviq Faktura</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hm Se0425                     </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>K*Bodylab</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Swish Daniel Selling</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Maxi Ica Storm Mora</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mcd 027 - Vaste               </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ikea Vasteras Hfb Eco         </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spotify                       </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ellos Ab                      </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>K*The Body S</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willys Mora Noret             </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zettle  Rattviksglass         </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blomsterlandet                </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>K*Icaniwill</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>K*Apotea Ab</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stora Coop Enkoping           </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burger King Avesta            </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oob Enkoping 32               </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Netflix.Com</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>K*Hm Online</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stora Tottes                  </t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Ica Supermarket West</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Swish Firma Puck Svedberghansjö Kaffestuga &amp; Glass</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olsson Nils Hemslojd          </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Avgift Bankkort</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>K*H &amp; M Henn</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>K*Estrid.Com</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leksands Kneckebrod           </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gran A Olssons Hemsloj        </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>K*Storytel S</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zettle  Didriksons Ret        </t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemkop Hjultorget             </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biltema Sweden Mora           </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nets Cmore Sverige            </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stadium Outlet                </t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nya Saluhallen I Orsa         </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rusta - 73 Mora               </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Apple.Com/Bill</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intersport Mora               </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Amazon.Co.Uk</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Swish Stadium Sweden Ab</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Amazonretail D65rw8o45</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gestbloms Bokha               </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Amazonmktplc Hm8q590i5</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/categories.xlsx
+++ b/database/categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,13 +514,26 @@
           <t>Nöje</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Hobby</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>931204-2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LÖN</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Barnbidr</t>
@@ -531,7 +544,11 @@
           <t>Klarna Refun</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FONDSPARANDE VERA</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Hyresgästför</t>
@@ -585,6 +602,11 @@
       <c r="Q2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filmstaden Upps               </t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>HUMBLEBUNDLE.COM,SAN FRANCISCO,US</t>
         </is>
       </c>
     </row>
@@ -592,15 +614,25 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HSB UPPSALA (INLÅNING)</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Barnbdr</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5300146370</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FONDSPARANDE</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Ica Försäkr</t>
@@ -647,7 +679,16 @@
           <t>K*Bodylab</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>TICKETMASTER SWEDEN,GOTEBORG,SE</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>STEAMGAMES.COM 4259522,Hamburg,DE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -656,9 +697,19 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5300166524</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BOSPARANDE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>OFFICERSFÖRB</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Swish Daniel Selling</t>
@@ -679,7 +730,11 @@
           <t xml:space="preserve">Ikea Vasteras Hfb Eco         </t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>K*carspect.s</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t xml:space="preserve">Spotify                       </t>
@@ -696,7 +751,16 @@
           <t>K*The Body S</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PEPPARROTSBADET,ENKÖPING,SE</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PlayStation Network,Hilversum,NL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -705,10 +769,20 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5300139173</v>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Akad.a-kassa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9273.12.755.96</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve">Willys Mora Noret             </t>
@@ -724,7 +798,11 @@
           <t xml:space="preserve">Blomsterlandet                </t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>KÖRKORTSAVGIFTER TRANSPORTSTYRELSEN</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>Amazon Prime</t>
@@ -742,6 +820,11 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>K*Adlibris A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -750,10 +833,22 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3867424545 W</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LF MOTOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9022.46.691.86</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve">Stora Coop Enkoping           </t>
@@ -769,7 +864,11 @@
           <t xml:space="preserve">Oob Enkoping 32               </t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TRÄNGSELSKATT TRANSPORTSTYRELSEN</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>Netflix.Com</t>
@@ -787,6 +886,11 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nintendo CA988941210,Frankfurt am,DE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -797,8 +901,16 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IF SKADEFÖRS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Daniel Selling</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Ica Supermarket West</t>
@@ -814,7 +926,11 @@
           <t xml:space="preserve">Olsson Nils Hemslojd          </t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OREBRO KOMMUN,OREBRO,SE</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>Avgift Bankkort</t>
@@ -832,6 +948,11 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Nintendo CA968550525,Frankfurt am,DE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -843,13 +964,21 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Swish till REBECCA SELLING</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">Leksands Kneckebrod           </t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ASTAS VEDUGN,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">Gran A Olssons Hemsloj        </t>
@@ -867,8 +996,17 @@
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Swish till KARZAN MUSTAFA</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Nintendo CA959609802,Frankfurt am,DE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,13 +1018,21 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Swish från REBECCA SELLING</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemkop Hjultorget             </t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cafe Galaxen</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t xml:space="preserve">Biltema Sweden Mora           </t>
@@ -904,8 +1050,13 @@
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Synsam Enkoping,Enkoping,SE</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -923,7 +1074,11 @@
           <t xml:space="preserve">Nya Saluhallen I Orsa         </t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DEN LILLA KROGE,SKOVDE,SE</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t xml:space="preserve">Rusta - 73 Mora               </t>
@@ -941,8 +1096,13 @@
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Tack till stans bästa frisör :</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -955,23 +1115,40 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>STORA COOP ENKÖPING,ENKÖPING,SE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7509 MR FROSUNDA,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Amazon.Co.Uk</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NETS*Comviq,Kista,SE</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Swish Stadium Sweden Ab</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>K*Apotea AB</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -984,19 +1161,36 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>MAXI ICA STORMARKNAD E,ENKOPING,SE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ASTASVEDUGN.SE,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>Amazonretail D65rw8o45</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Köavgift</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>DRESSMANN 390,Enkoping,SE</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1009,19 +1203,36 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>HEMKOP SKOVDE C,SKOVDE,SE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>MCDONALDS,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t xml:space="preserve">Gestbloms Bokha               </t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Comviq - Betala faktura 411639</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>INTERSPORT ENKO,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1034,19 +1245,36 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>LIDL 111 / ENKOPING,ENKOPING,SE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>BOMBAY MASALA,SKOVDE,SE</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Amazonmktplc Hm8q590i5</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Comviq - Betala faktura 411629</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>K*Dressmann</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1059,15 +1287,36 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ICA MAXI STORMARKNAD E,ENKOPING,SE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>MCD MARIESTAD,MARIESTAD,SE</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>K*Interflora</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Comviq - Betala faktura 411620</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lundhags Insjon,Stockholm,SE</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1081,14 +1330,27 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MIKES PUB,SKOVDE,SE</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>GESTBLOMS BOKHA,Enkoping,SE</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Comviq,Kista,SE</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1102,14 +1364,27 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SCANDIC BILLING,Skovde,SE</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Elgiganten Enkoeping,Enkoeping,SE</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Bankkort Privat 6104</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1123,14 +1398,23 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VALLEGRILLEN,SKOVDE,SE</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>K*Elgiganten</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1144,14 +1428,23 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SUSHI YAKI NOODLE,SKOVDE,SE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>AMAZONRETAIL*084BC8BU5,WWW.AMAZON.SE,LU</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1165,14 +1458,23 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RESTAURANG ESSET LUNCH,ENKOPING,SE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>FLORA BLOMSTERH,Enkoping,SE</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1186,14 +1488,23 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>STORA HOT. REST/PUB/PA,OREBRO,SE</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BYGGMAX/1317,ENKOPING,SE</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1207,14 +1518,23 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Zettle_*SSRS Stora Hot,OREBRO,SE</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PostNord Skicka Direkt: 139436</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1236,6 +1556,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1257,6 +1578,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1278,6 +1600,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1299,6 +1622,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1320,6 +1644,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1341,6 +1666,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1362,6 +1688,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1383,6 +1710,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1404,6 +1732,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1425,6 +1754,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
